--- a/consumer/app/card_handlers/grp_card/Входной файл.xlsx
+++ b/consumer/app/card_handlers/grp_card/Входной файл.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николай\Desktop\кейс\npi-tools\consumer\app\card_handlers\grp_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7AE79-DE27-4B50-AAE4-D34EED9EA51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4B2EB-37F4-4E8C-AE64-654609D5A72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="2340" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
